--- a/Masjid/output/SPMD06279/RekodBantuan.xlsx
+++ b/Masjid/output/SPMD06279/RekodBantuan.xlsx
@@ -101,7 +101,7 @@
     <t>MOHD IZWAN ALI</t>
   </si>
   <si>
-    <t>MASJIDPRO</t>
+    <t>MASJIDPRO PENANG</t>
   </si>
   <si>
     <t>0174066873</t>
@@ -765,7 +765,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>32</v>
